--- a/Team17hackathon/target/test-classes/TestCaseData.xlsx
+++ b/Team17hackathon/target/test-classes/TestCaseData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\14794\eclipse-workspace\Dsalgoxpathers\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manas\Desktop\Numpy_Ninja\Team17_SeleniumHackathon_Sep2023\Frameworkstruture\Team17hackathon\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C17DF3A-D299-41B3-8FFA-44A0A1E0DC3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3666A730-473C-4895-8651-2F6A33F092B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{09C7315B-D825-4338-9B1D-AEC147ED2C6B}"/>
   </bookViews>
@@ -34,34 +34,192 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t xml:space="preserve">code </t>
-  </si>
-  <si>
-    <t>result</t>
-  </si>
-  <si>
-    <t>print('hello');</t>
-  </si>
-  <si>
-    <t>hello</t>
-  </si>
-  <si>
-    <t>print</t>
-  </si>
-  <si>
-    <t>error</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+  <si>
+    <t>Fname</t>
+  </si>
+  <si>
+    <t>Lname</t>
+  </si>
+  <si>
+    <t>MName</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>LinkedInURL</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>UnderGra</t>
+  </si>
+  <si>
+    <t>PostGrad</t>
+  </si>
+  <si>
+    <t>TimeZone</t>
+  </si>
+  <si>
+    <t>UserComments</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>bb</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>dd</t>
+  </si>
+  <si>
+    <t>ee</t>
+  </si>
+  <si>
+    <t>hh</t>
+  </si>
+  <si>
+    <t>ff@gg.com</t>
+  </si>
+  <si>
+    <t>ii</t>
+  </si>
+  <si>
+    <t>CST</t>
+  </si>
+  <si>
+    <t>jj</t>
+  </si>
+  <si>
+    <t>kk</t>
+  </si>
+  <si>
+    <t>ll</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>nn</t>
+  </si>
+  <si>
+    <t>oo</t>
+  </si>
+  <si>
+    <t>pp@qq.com</t>
+  </si>
+  <si>
+    <t>rr</t>
+  </si>
+  <si>
+    <t>ss</t>
+  </si>
+  <si>
+    <t>EST</t>
+  </si>
+  <si>
+    <t>tt</t>
+  </si>
+  <si>
+    <t>invalid value</t>
+  </si>
+  <si>
+    <t>uu</t>
+  </si>
+  <si>
+    <t>vv</t>
+  </si>
+  <si>
+    <t>ww</t>
+  </si>
+  <si>
+    <t>xx</t>
+  </si>
+  <si>
+    <t>yy</t>
+  </si>
+  <si>
+    <t>zz@aaa.com</t>
+  </si>
+  <si>
+    <t>bbb</t>
+  </si>
+  <si>
+    <t>ccc</t>
+  </si>
+  <si>
+    <t>PST</t>
+  </si>
+  <si>
+    <t>ddd</t>
+  </si>
+  <si>
+    <t>eee</t>
+  </si>
+  <si>
+    <t>fff</t>
+  </si>
+  <si>
+    <t>ggg</t>
+  </si>
+  <si>
+    <t>hhh</t>
+  </si>
+  <si>
+    <t>iii</t>
+  </si>
+  <si>
+    <t>jjj</t>
+  </si>
+  <si>
+    <t>kkk@lll.com</t>
+  </si>
+  <si>
+    <t>mmm</t>
+  </si>
+  <si>
+    <t>nnn</t>
+  </si>
+  <si>
+    <t>ooo</t>
+  </si>
+  <si>
+    <t>ppp</t>
+  </si>
+  <si>
+    <t>for invalid value</t>
+  </si>
+  <si>
+    <t>for new with optional values</t>
+  </si>
+  <si>
+    <t>for new with mandatory values and update</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -84,13 +242,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -403,42 +564,208 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA43B848-157E-4DAD-8DB9-D4FC678C6FC6}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2">
+        <v>102030</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3">
+        <v>405060</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{528FB717-46D2-493E-8A93-2405DC2D7274}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{32E4C692-D528-4AD2-8D43-53336D89E4F1}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{E8FBB1EA-7D12-4008-A429-AD7123799ECC}"/>
+    <hyperlink ref="G5" r:id="rId4" xr:uid="{F72A2411-3369-413C-8A45-BB1DFEE7E265}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Team17hackathon/target/test-classes/TestCaseData.xlsx
+++ b/Team17hackathon/target/test-classes/TestCaseData.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manas\Desktop\Numpy_Ninja\Team17_SeleniumHackathon_Sep2023\Frameworkstruture\Team17hackathon\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanis\neweclipse-rest\Team17hackathon\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3666A730-473C-4895-8651-2F6A33F092B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26260821-1E1F-49CA-BB6B-73827474DAEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{09C7315B-D825-4338-9B1D-AEC147ED2C6B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{09C7315B-D825-4338-9B1D-AEC147ED2C6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,192 +36,67 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
-  <si>
-    <t>Fname</t>
-  </si>
-  <si>
-    <t>Lname</t>
-  </si>
-  <si>
-    <t>MName</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>LinkedInURL</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>UnderGra</t>
-  </si>
-  <si>
-    <t>PostGrad</t>
-  </si>
-  <si>
-    <t>TimeZone</t>
-  </si>
-  <si>
-    <t>UserComments</t>
-  </si>
-  <si>
-    <t>aa</t>
-  </si>
-  <si>
-    <t>bb</t>
-  </si>
-  <si>
-    <t>cc</t>
-  </si>
-  <si>
-    <t>dd</t>
-  </si>
-  <si>
-    <t>ee</t>
-  </si>
-  <si>
-    <t>hh</t>
-  </si>
-  <si>
-    <t>ff@gg.com</t>
-  </si>
-  <si>
-    <t>ii</t>
-  </si>
-  <si>
-    <t>CST</t>
-  </si>
-  <si>
-    <t>jj</t>
-  </si>
-  <si>
-    <t>kk</t>
-  </si>
-  <si>
-    <t>ll</t>
-  </si>
-  <si>
-    <t>mm</t>
-  </si>
-  <si>
-    <t>nn</t>
-  </si>
-  <si>
-    <t>oo</t>
-  </si>
-  <si>
-    <t>pp@qq.com</t>
-  </si>
-  <si>
-    <t>rr</t>
-  </si>
-  <si>
-    <t>ss</t>
-  </si>
-  <si>
-    <t>EST</t>
-  </si>
-  <si>
-    <t>tt</t>
-  </si>
-  <si>
-    <t>invalid value</t>
-  </si>
-  <si>
-    <t>uu</t>
-  </si>
-  <si>
-    <t>vv</t>
-  </si>
-  <si>
-    <t>ww</t>
-  </si>
-  <si>
-    <t>xx</t>
-  </si>
-  <si>
-    <t>yy</t>
-  </si>
-  <si>
-    <t>zz@aaa.com</t>
-  </si>
-  <si>
-    <t>bbb</t>
-  </si>
-  <si>
-    <t>ccc</t>
-  </si>
-  <si>
-    <t>PST</t>
-  </si>
-  <si>
-    <t>ddd</t>
-  </si>
-  <si>
-    <t>eee</t>
-  </si>
-  <si>
-    <t>fff</t>
-  </si>
-  <si>
-    <t>ggg</t>
-  </si>
-  <si>
-    <t>hhh</t>
-  </si>
-  <si>
-    <t>iii</t>
-  </si>
-  <si>
-    <t>jjj</t>
-  </si>
-  <si>
-    <t>kkk@lll.com</t>
-  </si>
-  <si>
-    <t>mmm</t>
-  </si>
-  <si>
-    <t>nnn</t>
-  </si>
-  <si>
-    <t>ooo</t>
-  </si>
-  <si>
-    <t>ppp</t>
-  </si>
-  <si>
-    <t>for invalid value</t>
-  </si>
-  <si>
-    <t>for new with optional values</t>
-  </si>
-  <si>
-    <t>for new with mandatory values and update</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+  <si>
+    <t xml:space="preserve">code </t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>print('hello');</t>
+  </si>
+  <si>
+    <t>hello</t>
+  </si>
+  <si>
+    <t>print</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>nameInput</t>
+  </si>
+  <si>
+    <t>pgrmDescriptionInput</t>
+  </si>
+  <si>
+    <t>noOfClass</t>
+  </si>
+  <si>
+    <t>Sep23-Team17-SDET_004</t>
+  </si>
+  <si>
+    <t>Phase II Test</t>
+  </si>
+  <si>
+    <t>Sep23-Team17-SDET_101</t>
+  </si>
+  <si>
+    <t>83@3409)#(</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>Program Name</t>
+  </si>
+  <si>
+    <t>Jan23-Seleniumbrewer-SDET-701-1001</t>
+  </si>
+  <si>
+    <t>Sep23-Team17-SDET_501</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -242,16 +119,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -564,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA43B848-157E-4DAD-8DB9-D4FC678C6FC6}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,197 +449,137 @@
     <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31248A6A-FEB7-4F42-A7B1-D4CABAF2AC87}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
       <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2">
-        <v>102030</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3">
-        <v>405060</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J5" t="s">
-        <v>51</v>
-      </c>
-      <c r="K5" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{528FB717-46D2-493E-8A93-2405DC2D7274}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{32E4C692-D528-4AD2-8D43-53336D89E4F1}"/>
-    <hyperlink ref="G4" r:id="rId3" xr:uid="{E8FBB1EA-7D12-4008-A429-AD7123799ECC}"/>
-    <hyperlink ref="G5" r:id="rId4" xr:uid="{F72A2411-3369-413C-8A45-BB1DFEE7E265}"/>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{8C5894CC-3F1B-4C84-9894-CF3024336C4A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13F76D69-CF41-4E14-A867-B32F75D4A368}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>